--- a/_docs/pluto.xlsx
+++ b/_docs/pluto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takumi.honma\Desktop\projects\kojin\thonma.github.io\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9435984-7BDF-4FDA-A690-3280069D1B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F873A79-1FCC-4580-B544-E6BA1B07A8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3105" windowWidth="18870" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
